--- a/ifrs-template.xlsx
+++ b/ifrs-template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="IFRS" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="71">
   <si>
     <t xml:space="preserve">Balance general</t>
   </si>
@@ -170,6 +170,12 @@
   </si>
   <si>
     <t xml:space="preserve">Pasivos + Patrimonio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Activos = Pasivos + Patrimonio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuadratura</t>
   </si>
   <si>
     <t xml:space="preserve">Estado de resultado</t>
@@ -233,9 +239,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="#,##0"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00"/>
+    <numFmt numFmtId="166" formatCode="#,##0"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -296,12 +303,24 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00CC00"/>
+        <bgColor rgb="FF008000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FF993300"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -312,16 +331,29 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6D9F1"/>
-        <bgColor rgb="FFC0C0C0"/>
+        <bgColor rgb="FF99CCFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB2B2B2"/>
+        <bgColor rgb="FF969696"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -332,7 +364,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -356,107 +388,167 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="6" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="13" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="6" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="6" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="6" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="6" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="6" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="6" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="6" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="6" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="6" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="6" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="6" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="6" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="13" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="9">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Untitled1" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Correct" xfId="21" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Incorrect" xfId="22" builtinId="53" customBuiltin="true"/>
   </cellStyles>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <family val="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00CC00"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="false" diagonalDown="false">
+        <left style="hair"/>
+        <right style="hair"/>
+        <top style="hair"/>
+        <bottom style="hair"/>
+        <diagonal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <family val="2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="false" diagonalDown="false">
+        <left style="hair"/>
+        <right style="hair"/>
+        <top style="hair"/>
+        <bottom style="hair"/>
+        <diagonal/>
+      </border>
+    </dxf>
+  </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
       <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF00CC00"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
@@ -467,7 +559,7 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FFB2B2B2"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
@@ -521,16 +613,16 @@
   </sheetPr>
   <dimension ref="B2:C73"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C74" activeCellId="0" sqref="C74"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C52" activeCellId="0" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="58.8571428571429"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.280612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="57.5051020408163"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.2040816326531"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -605,7 +697,7 @@
       <c r="B13" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="10" t="n">
+      <c r="C13" s="11" t="n">
         <f aca="false">SUM(C3:C12)</f>
         <v>0</v>
       </c>
@@ -629,7 +721,7 @@
       <c r="C16" s="6"/>
     </row>
     <row r="17" customFormat="false" ht="23.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C17" s="6"/>
@@ -665,7 +757,7 @@
       <c r="C22" s="4"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="13" t="s">
         <v>21</v>
       </c>
       <c r="C23" s="4"/>
@@ -674,7 +766,7 @@
       <c r="B24" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="10" t="n">
+      <c r="C24" s="11" t="n">
         <f aca="false">SUM(C14:C23)</f>
         <v>0</v>
       </c>
@@ -683,7 +775,7 @@
       <c r="B25" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="2" t="n">
+      <c r="C25" s="14" t="n">
         <f aca="false">SUM(C13,C24)</f>
         <v>0</v>
       </c>
@@ -695,43 +787,43 @@
       <c r="C26" s="6"/>
     </row>
     <row r="27" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="12" t="s">
         <v>25</v>
       </c>
       <c r="C27" s="6"/>
     </row>
     <row r="28" customFormat="false" ht="26.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="15" t="s">
         <v>26</v>
       </c>
       <c r="C28" s="4"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="16" t="s">
         <v>27</v>
       </c>
       <c r="C29" s="4"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="16" t="s">
         <v>28</v>
       </c>
       <c r="C30" s="6"/>
     </row>
     <row r="31" customFormat="false" ht="24.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="15" t="s">
         <v>29</v>
       </c>
       <c r="C31" s="6"/>
     </row>
     <row r="32" customFormat="false" ht="15.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="15" t="s">
         <v>30</v>
       </c>
       <c r="C32" s="6"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="15" t="s">
+      <c r="B33" s="17" t="s">
         <v>31</v>
       </c>
       <c r="C33" s="4"/>
@@ -740,7 +832,7 @@
       <c r="B34" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="10" t="n">
+      <c r="C34" s="11" t="n">
         <f aca="false">SUM(C26:C33)</f>
         <v>0</v>
       </c>
@@ -752,37 +844,37 @@
       <c r="C35" s="6"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="14" t="s">
+      <c r="B36" s="16" t="s">
         <v>34</v>
       </c>
       <c r="C36" s="4"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="14" t="s">
+      <c r="B37" s="16" t="s">
         <v>35</v>
       </c>
       <c r="C37" s="4"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="14" t="s">
+      <c r="B38" s="16" t="s">
         <v>36</v>
       </c>
       <c r="C38" s="4"/>
     </row>
     <row r="39" customFormat="false" ht="23.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B39" s="13" t="s">
+      <c r="B39" s="15" t="s">
         <v>37</v>
       </c>
       <c r="C39" s="4"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="14" t="s">
+      <c r="B40" s="16" t="s">
         <v>38</v>
       </c>
       <c r="C40" s="4"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="15" t="s">
+      <c r="B41" s="17" t="s">
         <v>39</v>
       </c>
       <c r="C41" s="4"/>
@@ -791,7 +883,7 @@
       <c r="B42" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C42" s="10" t="n">
+      <c r="C42" s="11" t="n">
         <f aca="false">SUM(C35:C41)</f>
         <v>0</v>
       </c>
@@ -800,13 +892,13 @@
       <c r="B43" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C43" s="2" t="n">
+      <c r="C43" s="14" t="n">
         <f aca="false">SUM(C34,C42)</f>
         <v>0</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="14" t="s">
+      <c r="B44" s="16" t="s">
         <v>42</v>
       </c>
       <c r="C44" s="4"/>
@@ -830,22 +922,22 @@
       <c r="C47" s="6"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="14" t="s">
+      <c r="B48" s="16" t="s">
         <v>46</v>
       </c>
       <c r="C48" s="4"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="16" t="s">
+      <c r="B49" s="18" t="s">
         <v>47</v>
       </c>
       <c r="C49" s="4"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="17" t="s">
+      <c r="B50" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="C50" s="17" t="n">
+      <c r="C50" s="11" t="n">
         <f aca="false">SUM(C44:C49)</f>
         <v>0</v>
       </c>
@@ -854,18 +946,28 @@
       <c r="B51" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C51" s="2" t="n">
-        <f aca="false">SUM(C43,C50)</f>
+      <c r="C51" s="14" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="18"/>
-      <c r="C52" s="19"/>
+      <c r="B52" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C52" s="14" t="n">
+        <f aca="false">SUM(C25-C51)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B53" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C53" s="21"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>1</v>
@@ -873,125 +975,133 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C56" s="4"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C57" s="6"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B58" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C58" s="20"/>
+      <c r="B58" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C58" s="22"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="C59" s="10" t="n">
+        <v>56</v>
+      </c>
+      <c r="C59" s="11" t="n">
         <f aca="false">SUM(C56:C58)</f>
         <v>0</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C60" s="6"/>
     </row>
     <row r="61" customFormat="false" ht="13.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B61" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C61" s="6"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C62" s="10" t="n">
+        <v>59</v>
+      </c>
+      <c r="C62" s="11" t="n">
         <f aca="false">SUM(C59,C60,C61)</f>
         <v>0</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C63" s="4"/>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C64" s="4"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C65" s="4"/>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C66" s="4"/>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C67" s="6"/>
     </row>
     <row r="68" customFormat="false" ht="35.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B68" s="11" t="s">
-        <v>63</v>
+      <c r="B68" s="12" t="s">
+        <v>65</v>
       </c>
       <c r="C68" s="6"/>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C69" s="6"/>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C70" s="4"/>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C71" s="10" t="n">
+        <v>68</v>
+      </c>
+      <c r="C71" s="11" t="n">
         <f aca="false">SUM(C62,C63,C64,C65,C66,C67,C68,C69,C70)</f>
         <v>0</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B72" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C72" s="6"/>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B73" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C73" s="10" t="n">
+        <v>70</v>
+      </c>
+      <c r="C73" s="11" t="n">
         <f aca="false">SUM(C71,C72)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C53">
+    <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>C52=0</formula>
+    </cfRule>
+    <cfRule type="expression" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>C52&lt;&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/ifrs-template.xlsx
+++ b/ifrs-template.xlsx
@@ -303,24 +303,12 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00CC00"/>
-        <bgColor rgb="FF008000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FF993300"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -350,21 +338,21 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
       <left style="hair"/>
       <right style="hair"/>
       <top style="hair"/>
       <bottom style="hair"/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="23">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -388,120 +376,108 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="13" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="15" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="13" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="15" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Untitled1" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Correct" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Incorrect" xfId="22" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -613,16 +589,14 @@
   </sheetPr>
   <dimension ref="B2:C73"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C52" activeCellId="0" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="57.5051020408163"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.2040816326531"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="56.8316326530612"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.6632653061224"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -947,6 +921,7 @@
         <v>49</v>
       </c>
       <c r="C51" s="14" t="n">
+        <f aca="false">SUM(C43,C50)</f>
         <v>0</v>
       </c>
     </row>

--- a/ifrs-template.xlsx
+++ b/ifrs-template.xlsx
@@ -239,10 +239,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="#,##0.00"/>
-    <numFmt numFmtId="166" formatCode="#,##0"/>
+    <numFmt numFmtId="165" formatCode="#,##0"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -377,7 +376,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -438,24 +437,16 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -589,14 +580,16 @@
   </sheetPr>
   <dimension ref="B2:C73"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C52" activeCellId="0" sqref="C52"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C56" activeCellId="0" sqref="C56:C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="56.8316326530612"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.6632653061224"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="56.1581632653061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.2602040816326"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -767,37 +760,37 @@
       <c r="C27" s="6"/>
     </row>
     <row r="28" customFormat="false" ht="26.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C28" s="4"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="15" t="s">
         <v>27</v>
       </c>
       <c r="C29" s="4"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="15" t="s">
         <v>28</v>
       </c>
       <c r="C30" s="6"/>
     </row>
     <row r="31" customFormat="false" ht="24.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C31" s="6"/>
     </row>
     <row r="32" customFormat="false" ht="15.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B32" s="15" t="s">
+      <c r="B32" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C32" s="6"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="17" t="s">
+      <c r="B33" s="16" t="s">
         <v>31</v>
       </c>
       <c r="C33" s="4"/>
@@ -818,37 +811,37 @@
       <c r="C35" s="6"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="16" t="s">
+      <c r="B36" s="15" t="s">
         <v>34</v>
       </c>
       <c r="C36" s="4"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="16" t="s">
+      <c r="B37" s="15" t="s">
         <v>35</v>
       </c>
       <c r="C37" s="4"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="16" t="s">
+      <c r="B38" s="15" t="s">
         <v>36</v>
       </c>
       <c r="C38" s="4"/>
     </row>
     <row r="39" customFormat="false" ht="23.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B39" s="15" t="s">
+      <c r="B39" s="6" t="s">
         <v>37</v>
       </c>
       <c r="C39" s="4"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="16" t="s">
+      <c r="B40" s="15" t="s">
         <v>38</v>
       </c>
       <c r="C40" s="4"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="17" t="s">
+      <c r="B41" s="16" t="s">
         <v>39</v>
       </c>
       <c r="C41" s="4"/>
@@ -872,7 +865,7 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="16" t="s">
+      <c r="B44" s="15" t="s">
         <v>42</v>
       </c>
       <c r="C44" s="4"/>
@@ -896,19 +889,19 @@
       <c r="C47" s="6"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="16" t="s">
+      <c r="B48" s="15" t="s">
         <v>46</v>
       </c>
       <c r="C48" s="4"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="18" t="s">
+      <c r="B49" s="17" t="s">
         <v>47</v>
       </c>
       <c r="C49" s="4"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="19" t="s">
+      <c r="B50" s="11" t="s">
         <v>48</v>
       </c>
       <c r="C50" s="11" t="n">
@@ -935,10 +928,10 @@
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="20" t="s">
+      <c r="B53" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="C53" s="21"/>
+      <c r="C53" s="19"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="1" t="s">
@@ -964,7 +957,7 @@
       <c r="B58" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="C58" s="22"/>
+      <c r="C58" s="20"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="10" t="s">
